--- a/modelos/OBAOLE4423075/OBAOLE4423075_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423075/OBAOLE4423075_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>135.418165515632</v>
+        <v>136.6233135101585</v>
       </c>
       <c r="C2" t="n">
-        <v>104.0713644663416</v>
+        <v>107.8831629681601</v>
       </c>
       <c r="D2" t="n">
-        <v>166.8959701227172</v>
+        <v>167.1932569144769</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>144.7236375887443</v>
+        <v>145.7898940719908</v>
       </c>
       <c r="C3" t="n">
-        <v>112.4530825678879</v>
+        <v>113.2158550281576</v>
       </c>
       <c r="D3" t="n">
-        <v>174.5366215556115</v>
+        <v>175.148784416478</v>
       </c>
       <c r="E3" t="n">
         <v>185</v>
@@ -516,13 +516,13 @@
         <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>128.9360506090266</v>
+        <v>137.7337631467967</v>
       </c>
       <c r="C4" t="n">
-        <v>99.11160859038691</v>
+        <v>104.8246212997051</v>
       </c>
       <c r="D4" t="n">
-        <v>157.5037719067033</v>
+        <v>166.8875261727178</v>
       </c>
       <c r="E4" t="n">
         <v>158</v>
@@ -536,13 +536,13 @@
         <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>139.2205817855271</v>
+        <v>146.0101243829661</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5069673894708</v>
+        <v>113.2008634494021</v>
       </c>
       <c r="D5" t="n">
-        <v>169.9221287564372</v>
+        <v>177.7316586724323</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -617,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1717.698998568464</v>
+        <v>1624.731295882169</v>
       </c>
       <c r="C2" t="n">
-        <v>41.44513238690961</v>
+        <v>40.30795573930994</v>
       </c>
       <c r="D2" t="n">
-        <v>41.42909844781188</v>
+        <v>40.29339620892537</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2284669281629457</v>
+        <v>0.2221999067082648</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2284669281629457</v>
+        <v>0.2221999067082648</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2580145687621734</v>
+        <v>0.2500466018806141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2235.615812394212</v>
+        <v>2450.538563005362</v>
       </c>
       <c r="C3" t="n">
-        <v>47.2822991445447</v>
+        <v>49.50291469201952</v>
       </c>
       <c r="D3" t="n">
-        <v>44.64226558825027</v>
+        <v>43.63818061808472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.473117446082366</v>
+        <v>0.4882483722124542</v>
       </c>
       <c r="F3" t="n">
-        <v>0.473117446082366</v>
+        <v>0.4882483722124542</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3772526566016726</v>
+        <v>0.3663380288441408</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4423075/OBAOLE4423075_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423075/OBAOLE4423075_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>136.6233135101585</v>
+        <v>136.6233135101587</v>
       </c>
       <c r="C2" t="n">
-        <v>107.8831629681601</v>
+        <v>106.1534965844219</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1932569144769</v>
+        <v>166.0313875961502</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>145.7898940719908</v>
+        <v>145.7898940708727</v>
       </c>
       <c r="C3" t="n">
-        <v>113.2158550281576</v>
+        <v>113.5639427220251</v>
       </c>
       <c r="D3" t="n">
-        <v>175.148784416478</v>
+        <v>177.6581309189406</v>
       </c>
       <c r="E3" t="n">
         <v>185</v>
@@ -516,13 +516,13 @@
         <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>137.7337631467967</v>
+        <v>137.7337631469755</v>
       </c>
       <c r="C4" t="n">
-        <v>104.8246212997051</v>
+        <v>107.0000313211613</v>
       </c>
       <c r="D4" t="n">
-        <v>166.8875261727178</v>
+        <v>170.9463510849752</v>
       </c>
       <c r="E4" t="n">
         <v>158</v>
@@ -536,13 +536,13 @@
         <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>146.0101243829661</v>
+        <v>146.0101243829171</v>
       </c>
       <c r="C5" t="n">
-        <v>113.2008634494021</v>
+        <v>111.7481412963362</v>
       </c>
       <c r="D5" t="n">
-        <v>177.7316586724323</v>
+        <v>177.5684189103448</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -617,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1624.731295882169</v>
+        <v>1624.731295926002</v>
       </c>
       <c r="C2" t="n">
-        <v>40.30795573930994</v>
+        <v>40.30795573985367</v>
       </c>
       <c r="D2" t="n">
-        <v>40.29339620892537</v>
+        <v>40.29339620948433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2221999067082648</v>
+        <v>0.2221999067112862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2221999067082648</v>
+        <v>0.2221999067112862</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2500466018806141</v>
+        <v>0.2500466018843942</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2450.538563005362</v>
+        <v>2450.538562998455</v>
       </c>
       <c r="C3" t="n">
-        <v>49.50291469201952</v>
+        <v>49.50291469194976</v>
       </c>
       <c r="D3" t="n">
-        <v>43.63818061808472</v>
+        <v>43.63818061797079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4882483722124542</v>
+        <v>0.4882483722115782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4882483722124542</v>
+        <v>0.4882483722115782</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3663380288441408</v>
+        <v>0.3663380288433417</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>

--- a/modelos/OBAOLE4423075/OBAOLE4423075_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423075/OBAOLE4423075_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>136.6233135101587</v>
+        <v>144.1464901742858</v>
       </c>
       <c r="C2" t="n">
-        <v>106.1534965844219</v>
+        <v>109.5580918538217</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0313875961502</v>
+        <v>176.7374474376066</v>
       </c>
       <c r="E2" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B3" t="n">
-        <v>145.7898940708727</v>
+        <v>134.0786487816683</v>
       </c>
       <c r="C3" t="n">
-        <v>113.5639427220251</v>
+        <v>97.89813897409458</v>
       </c>
       <c r="D3" t="n">
-        <v>177.6581309189406</v>
+        <v>167.6426136270859</v>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45061</v>
       </c>
       <c r="B4" t="n">
-        <v>137.7337631469755</v>
+        <v>142.8837410412733</v>
       </c>
       <c r="C4" t="n">
-        <v>107.0000313211613</v>
+        <v>107.9786670957574</v>
       </c>
       <c r="D4" t="n">
-        <v>170.9463510849752</v>
+        <v>174.3537606728463</v>
       </c>
       <c r="E4" t="n">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="B5" t="n">
-        <v>146.0101243829171</v>
-      </c>
-      <c r="C5" t="n">
-        <v>111.7481412963362</v>
-      </c>
-      <c r="D5" t="n">
-        <v>177.5684189103448</v>
-      </c>
-      <c r="E5" t="n">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -617,22 +597,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1624.731295926002</v>
+        <v>1669.00926507973</v>
       </c>
       <c r="C2" t="n">
-        <v>40.30795573985367</v>
+        <v>40.85350982571424</v>
       </c>
       <c r="D2" t="n">
-        <v>40.29339620948433</v>
+        <v>40.85350982571424</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2221999067112862</v>
+        <v>0.2208297828416986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2221999067112862</v>
+        <v>0.2208297828416986</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2500466018843942</v>
+        <v>0.2482390731499642</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +623,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2450.538562998455</v>
+        <v>2326.681706769621</v>
       </c>
       <c r="C3" t="n">
-        <v>49.50291469194976</v>
+        <v>48.23568913957404</v>
       </c>
       <c r="D3" t="n">
-        <v>43.63818061797079</v>
+        <v>43.90254612980247</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4882483722115782</v>
+        <v>0.4800279534837919</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4882483722115782</v>
+        <v>0.4800279534837919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3663380288433417</v>
+        <v>0.3698157536127339</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
